--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-desired-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-desired-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,60 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
+    <t>die</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>forced</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>shit</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
@@ -94,9 +103,6 @@
     <t>empty</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -109,100 +115,127 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>like</t>
+    <t>relief</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
 </sst>
 </file>
@@ -560,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +662,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -679,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8947368421052632</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,16 +833,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -829,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8648648648648649</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.9086161879895561</v>
+        <v>0.890625</v>
       </c>
       <c r="L7">
-        <v>348</v>
+        <v>114</v>
       </c>
       <c r="M7">
-        <v>348</v>
+        <v>114</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.863013698630137</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.9084507042253521</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8620689655172413</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.890625</v>
+        <v>0.8877284595300261</v>
       </c>
       <c r="L9">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="M9">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7354497354497355</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C10">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8875</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L10">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="M10">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7344961240310077</v>
+        <v>0.775</v>
       </c>
       <c r="C11">
-        <v>379</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>379</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8787878787878788</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7254901960784313</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.8773584905660378</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L12">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1162,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.711864406779661</v>
+        <v>0.7403100775193798</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="D13">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.8611111111111112</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,7 +1212,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6923076923076923</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C14">
         <v>27</v>
@@ -1197,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.8571428571428571</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L14">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1262,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.675</v>
+        <v>0.7195767195767195</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.851063829787234</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1312,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6711409395973155</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="K16">
-        <v>0.8448275862068966</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1362,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.8412698412698413</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L17">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1412,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5714285714285714</v>
+        <v>0.6040268456375839</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.8333333333333334</v>
+        <v>0.8375</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1462,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5466666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.8292682926829268</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L19">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="M19">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,13 +1512,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4666666666666667</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C20">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.7708333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1562,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4545454545454545</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L21">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,13 +1612,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4285714285714285</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.7312925170068028</v>
+        <v>0.7705882352941177</v>
       </c>
       <c r="L22">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="M22">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1618,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,13 +1662,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.425</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1647,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.723404255319149</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L23">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1671,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1679,13 +1712,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3611111111111111</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="C24">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1697,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
         <v>36</v>
@@ -1721,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1729,13 +1762,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2359249329758713</v>
+        <v>0.4375</v>
       </c>
       <c r="C25">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1747,123 +1780,219 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K25">
+        <v>0.74</v>
+      </c>
+      <c r="L25">
+        <v>37</v>
+      </c>
+      <c r="M25">
+        <v>37</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.4007936507936508</v>
+      </c>
+      <c r="C26">
+        <v>101</v>
+      </c>
+      <c r="D26">
+        <v>101</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>151</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26">
+        <v>0.7380952380952381</v>
+      </c>
+      <c r="L26">
+        <v>217</v>
+      </c>
+      <c r="M26">
+        <v>218</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.2788203753351207</v>
+      </c>
+      <c r="C27">
+        <v>104</v>
+      </c>
+      <c r="D27">
+        <v>104</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>269</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27">
+        <v>0.7280334728033473</v>
+      </c>
+      <c r="L27">
+        <v>174</v>
+      </c>
+      <c r="M27">
+        <v>174</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="C28">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>32</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>268</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28">
         <v>0.7191011235955056</v>
       </c>
-      <c r="L25">
+      <c r="L28">
         <v>64</v>
       </c>
-      <c r="M25">
+      <c r="M28">
         <v>64</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26">
-        <v>0.7076923076923077</v>
-      </c>
-      <c r="L26">
-        <v>46</v>
-      </c>
-      <c r="M26">
-        <v>46</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27">
-        <v>0.7071129707112971</v>
-      </c>
-      <c r="L27">
-        <v>169</v>
-      </c>
-      <c r="M27">
-        <v>169</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K28">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L28">
-        <v>36</v>
-      </c>
-      <c r="M28">
-        <v>36</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>15</v>
-      </c>
-    </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.01032258064516129</v>
+      </c>
+      <c r="C29">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <v>0.18</v>
+      </c>
+      <c r="F29">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3068</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L29">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1875,21 +2004,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K30">
-        <v>0.675</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1901,21 +2030,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.5789473684210527</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1927,21 +2056,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.5205479452054794</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1953,15 +2082,15 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.421875</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
         <v>27</v>
@@ -1979,7 +2108,189 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>37</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L34">
+        <v>42</v>
+      </c>
+      <c r="M34">
+        <v>43</v>
+      </c>
+      <c r="N34">
+        <v>0.98</v>
+      </c>
+      <c r="O34">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35">
+        <v>0.5245901639344263</v>
+      </c>
+      <c r="L35">
+        <v>32</v>
+      </c>
+      <c r="M35">
+        <v>32</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36">
+        <v>0.46875</v>
+      </c>
+      <c r="L36">
+        <v>30</v>
+      </c>
+      <c r="M36">
+        <v>30</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37">
+        <v>0.456140350877193</v>
+      </c>
+      <c r="L37">
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <v>26</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38">
+        <v>0.4487179487179487</v>
+      </c>
+      <c r="L38">
+        <v>35</v>
+      </c>
+      <c r="M38">
+        <v>35</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39">
+        <v>0.287037037037037</v>
+      </c>
+      <c r="L39">
+        <v>31</v>
+      </c>
+      <c r="M39">
+        <v>32</v>
+      </c>
+      <c r="N39">
+        <v>0.97</v>
+      </c>
+      <c r="O39">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="L40">
+        <v>30</v>
+      </c>
+      <c r="M40">
+        <v>30</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
